--- a/coursera/yelp.xlsx
+++ b/coursera/yelp.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\python\coursera\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0CE1A0A-F563-4541-AE18-265F261CAF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="32580" windowHeight="18660" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yelp_data" sheetId="1" r:id="rId1"/>
@@ -2484,8 +2490,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3287,6 +3293,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3577,23 +3586,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19223,8 +19232,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1233">
-    <sortState ref="A2:K601">
+  <autoFilter ref="A1:F1233" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K601">
       <sortCondition ref="H1:H1233"/>
     </sortState>
   </autoFilter>
@@ -19240,14 +19249,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -19374,14 +19383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
